--- a/example.xlsx
+++ b/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>写在前面：</t>
   </si>
@@ -83,9 +83,6 @@
     <t>字数适中，表达准确清晰，语言需适合主持人串场</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>花之圆舞曲</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>CHEN Yuqian</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +207,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -274,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,10 +315,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
@@ -632,34 +635,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -746,7 +749,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="28.5">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -826,30 +829,28 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="12" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -877,22 +878,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -916,25 +917,25 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="13"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -961,11 +962,9 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -997,22 +996,22 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1041,22 +1040,22 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1082,7 +1081,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="11"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
